--- a/EXPORT_FILES/Расход.xlsx
+++ b/EXPORT_FILES/Расход.xlsx
@@ -1797,7 +1797,7 @@
     <t>${БЛР.expulsed_other}</t>
   </si>
   <si>
-    <t>28.01.2025 г.</t>
+    <t>26.02.2025 г.</t>
   </si>
 </sst>
 </file>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="12">
         <f>SUM(N7,O7)</f>
@@ -4657,10 +4657,10 @@
         <f si="1" t="shared"/>
       </c>
       <c r="F13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="13">
         <f si="2" t="shared"/>
@@ -4669,28 +4669,28 @@
         <f si="3" t="shared"/>
       </c>
       <c r="J13" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13" s="12">
         <f si="4" t="shared"/>
       </c>
       <c r="N13" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" s="14">
         <f>SUM(Q13:W13)</f>
       </c>
       <c r="Q13" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="42">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <f si="5" t="shared"/>
       </c>
       <c r="Q19" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="42">
         <v>0</v>
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="14">
         <f si="5" t="shared"/>
@@ -6383,7 +6383,7 @@
         <f si="3" t="shared"/>
       </c>
       <c r="J36" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="42">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         <f>SUM(I38,M38)</f>
       </c>
       <c r="F38" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="12">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="12">
         <f si="4" t="shared"/>
@@ -7126,7 +7126,7 @@
         <f>SUM(B40,B46)</f>
       </c>
       <c r="C47" s="29">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D47" s="29">
         <f>SUM(D46,D40,P48)</f>
